--- a/Data/names.xlsx
+++ b/Data/names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Result-System\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Result-System-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B8D1A3-12F4-4BBE-9180-6819B33FA99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022F156-D153-4196-9A13-4D145C3932C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
   <si>
     <t>nur a jahan nitu</t>
   </si>
@@ -250,6 +250,12 @@
     <t>kudratul tamanna</t>
   </si>
   <si>
+    <t>samsunnahar</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>joni keya</t>
   </si>
   <si>
@@ -344,9 +350,6 @@
   </si>
   <si>
     <t>jannatun nesa</t>
-  </si>
-  <si>
-    <t>samsunnahar</t>
   </si>
   <si>
     <t>Name</t>
@@ -359,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,316 +370,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -684,207 +387,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -931,20 +446,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -972,31 +487,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1024,23 +522,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1052,167 +533,193 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B125"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1220,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1228,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1236,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1244,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1252,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1260,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1268,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1276,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1284,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1292,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1300,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1308,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1316,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1324,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1332,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1340,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1348,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1356,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1364,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1372,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1380,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1388,7 +895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1396,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1404,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1412,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1420,7 +927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1428,7 +935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1436,7 +943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1444,7 +951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1452,7 +959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1460,7 +967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1468,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1476,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1484,7 +991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1492,7 +999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1500,7 +1007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1508,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1516,7 +1023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1524,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1532,7 +1039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1540,7 +1047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1548,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1556,7 +1063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1564,7 +1071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1572,7 +1079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1580,7 +1087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1588,7 +1095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1596,7 +1103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1604,7 +1111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1612,7 +1119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1620,7 +1127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1628,7 +1135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1636,7 +1143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1644,7 +1151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1652,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1660,7 +1167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1668,7 +1175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1676,7 +1183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1684,7 +1191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1692,7 +1199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1700,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1708,7 +1215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1716,7 +1223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1724,7 +1231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1732,7 +1239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1740,7 +1247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1748,7 +1255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1756,7 +1263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1764,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1772,7 +1279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1780,7 +1287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1788,7 +1295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1796,7 +1303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1804,7 +1311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1812,7 +1319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1820,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1828,7 +1335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1836,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1844,7 +1351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1852,7 +1359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1860,103 +1367,106 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1964,15 +1474,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1980,7 +1490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1988,7 +1498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1996,7 +1506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2004,71 +1514,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2076,23 +1586,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2100,39 +1610,39 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2140,15 +1650,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2156,52 +1666,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Data/names.xlsx
+++ b/Data/names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Result-System-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022F156-D153-4196-9A13-4D145C3932C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB0B3AA-5D4F-4853-A458-56DD436B80D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>samsunnahar</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>joni keya</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Roll</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -391,9 +391,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,644 +710,884 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>74</v>
+      </c>
+      <c r="C80">
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1358,6 +1597,9 @@
       <c r="B81" t="s">
         <v>64</v>
       </c>
+      <c r="C81">
+        <v>154</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -1366,6 +1608,9 @@
       <c r="B82" t="s">
         <v>75</v>
       </c>
+      <c r="C82">
+        <v>154</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -1374,8 +1619,8 @@
       <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>77</v>
+      <c r="C83">
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1628,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C84">
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1639,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,7 +1650,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C86">
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,7 +1661,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,7 +1672,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C88">
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,7 +1683,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C89">
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1694,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C90">
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1705,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C91">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,7 +1716,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C92">
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1727,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C93">
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,7 +1738,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C94">
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,245 +1751,338 @@
       <c r="B95" t="s">
         <v>64</v>
       </c>
+      <c r="C95">
+        <v>154</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C96">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C101">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C102">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C103">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C104">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="C105">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C106">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C107">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C108">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C110">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C111">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C113">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C115">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C116">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C118">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="C120">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C121">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C122">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C123">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C124">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C125">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Data/names.xlsx
+++ b/Data/names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Result-System-Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332642A-FFC7-4EB7-A346-93EEB186F959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B528AD-B928-4CE5-9318-FAC26BF7FD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Roll</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Ringkey</t>
+  </si>
+  <si>
+    <t>Subjects</t>
   </si>
 </sst>
 </file>
@@ -79,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +398,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +408,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,8 +422,11 @@
       <c r="C2">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>101107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -427,7 +437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -438,7 +448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,7 +459,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
